--- a/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
+++ b/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAFFBC-7C96-D84A-B7CB-F96AA9842B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E5379-0672-4B94-8AA4-3C962C7A6144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,77 +518,77 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1090,7 +1090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1297,87 +1297,85 @@
   </sheetPr>
   <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1390,204 +1388,204 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="2">
         <v>3</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="2">
         <v>3</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="2">
         <v>3</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1601,12 +1599,12 @@
         <v>3</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1620,12 +1618,12 @@
         <v>4</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1641,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>25</v>
       </c>
@@ -1651,18 +1649,18 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1673,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1686,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1701,22 +1699,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F35" s="33" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="36" t="s">
+      <c r="H35" s="17"/>
+      <c r="I35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="F36" s="34"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="29"/>
       <c r="G36" s="6" t="s">
         <v>28</v>
       </c>
@@ -1726,71 +1724,71 @@
       <c r="I36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-    </row>
-    <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-    </row>
-    <row r="39" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="34"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-    </row>
-    <row r="40" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="34"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="31"/>
-    </row>
-    <row r="41" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="34"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="21" t="s">
+      <c r="C38" s="31"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="29"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="29"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="29"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +1797,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>37</v>
       </c>
@@ -1808,7 +1806,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>38</v>
       </c>
@@ -1819,16 +1817,35 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1845,35 +1862,16 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="J39:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1931,6 +1929,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1093</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1093</Url>
+      <Description>JDHWM6R55FRK-3-1093</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -2075,27 +2094,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1093</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1093</Url>
-      <Description>JDHWM6R55FRK-3-1093</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707DC66E-FF7E-4199-BFD9-E3582360E337}">
   <ds:schemaRefs>
@@ -2105,19 +2103,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C666EB69-39AF-4174-B940-3523E3CA91F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E98DA1-E4D6-4480-955B-5C1A00509D39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2139,9 +2127,19 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E98DA1-E4D6-4480-955B-5C1A00509D39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C666EB69-39AF-4174-B940-3523E3CA91F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
+++ b/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E5379-0672-4B94-8AA4-3C962C7A6144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8EC0A-90E4-804C-841B-201B5F21162B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,68 +587,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,85 +1297,87 @@
   </sheetPr>
   <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1388,279 +1390,279 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="2">
         <v>3</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="2">
         <v>3</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="2">
         <v>3</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>11</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>12</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="8">
         <v>4</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="2">
         <f>SUM(F11:F22)</f>
         <v>37</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="38">
         <f>SUM(G11:G22)/31</f>
         <v>0</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1699,22 +1701,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="28" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="37"/>
+      <c r="I35" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F36" s="29"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="F36" s="33"/>
       <c r="G36" s="6" t="s">
         <v>28</v>
       </c>
@@ -1724,71 +1726,71 @@
       <c r="I36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="29"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="29"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="29"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="C38" s="20"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="33"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="33"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="33"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="20"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>36</v>
       </c>
@@ -1797,7 +1799,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1808,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>38</v>
       </c>
@@ -1817,6 +1819,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:K42"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H10:K10"/>
@@ -1833,45 +1874,6 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="J39:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1929,27 +1931,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1093</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1093</Url>
-      <Description>JDHWM6R55FRK-3-1093</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -2094,6 +2075,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1093</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1093</Url>
+      <Description>JDHWM6R55FRK-3-1093</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707DC66E-FF7E-4199-BFD9-E3582360E337}">
   <ds:schemaRefs>
@@ -2103,9 +2105,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E98DA1-E4D6-4480-955B-5C1A00509D39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C666EB69-39AF-4174-B940-3523E3CA91F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2127,19 +2139,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C666EB69-39AF-4174-B940-3523E3CA91F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E98DA1-E4D6-4480-955B-5C1A00509D39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
+++ b/excels/Form 3.2 - WIP - Check List Inspeksi Penerapan Program HSE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8EC0A-90E4-804C-841B-201B5F21162B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95237163-BF7D-4243-BFA8-C663E4E97093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t xml:space="preserve"> CHECK LIST INSPEKSI PENERAPAN PROGRAM HSE</t>
   </si>
@@ -126,16 +126,10 @@
     <t>Wakil Perusahaan Kontraktor</t>
   </si>
   <si>
-    <t>(                                                        )</t>
-  </si>
-  <si>
     <t>Direksi Pekerjaan</t>
   </si>
   <si>
     <t>HSSE</t>
-  </si>
-  <si>
-    <t>________________________________________________________________________________________________________________</t>
   </si>
   <si>
     <t>NOTE :</t>
@@ -289,6 +283,27 @@
   <si>
     <t>: 15 April 2019</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Total Nilai = </t>
+  </si>
+  <si>
+    <t>(𝚺 Score actual yang dicapau terhadap item yang diperiksa)</t>
+  </si>
+  <si>
+    <t>(𝚺 score maksimum target terhadap seluruh item yang harus diperiksa) x 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(                                                        </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -480,26 +495,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,31 +525,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -578,17 +620,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,394 +666,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6185647" cy="654425"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5255EB-9AEB-404E-AB07-5F5F5BC05FC9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="421341" y="14944164"/>
-              <a:ext cx="6185647" cy="654425"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1200" b="1"/>
-                <a:t>% Total Nilai =  </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="el-GR" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝚺</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>  </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐒𝐜𝐨𝐫𝐞</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐚𝐜𝐭𝐮𝐚𝐥</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐲𝐚𝐧𝐠</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐝𝐢𝐜𝐚𝐩𝐚𝐢</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐭𝐞𝐫𝐡𝐚𝐝𝐚𝐩</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐢𝐭𝐞𝐦</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐲𝐚𝐧𝐠</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐝𝐢𝐩𝐞𝐫𝐢𝐤𝐬𝐚</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="el-GR" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝚺</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐒𝐜𝐨𝐫𝐞</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐦𝐚𝐤𝐬𝐢𝐦𝐮𝐦</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐭𝐚𝐫𝐠𝐞𝐭</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐭𝐞𝐫𝐡𝐚𝐝𝐚𝐩</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐬𝐞𝐥𝐮𝐫𝐮𝐡</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐢𝐭𝐞𝐦</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐲𝐚𝐧𝐠</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐡𝐚𝐫𝐮𝐬</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐝𝐩𝐞𝐫𝐢𝐤𝐬𝐚</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1200" b="1"/>
-                <a:t> x 100 %</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5255EB-9AEB-404E-AB07-5F5F5BC05FC9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="421341" y="14944164"/>
-              <a:ext cx="6185647" cy="654425"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1200" b="1"/>
-                <a:t>% Total Nilai =  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝚺</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>  𝐒𝐜𝐨𝐫𝐞 𝐚𝐜𝐭𝐮𝐚𝐥 𝐲𝐚𝐧𝐠 𝐝𝐢𝐜𝐚𝐩𝐚𝐢 𝐭𝐞𝐫𝐡𝐚𝐝𝐚𝐩 𝐢𝐭𝐞𝐦 𝐲𝐚𝐧𝐠 𝐝𝐢𝐩𝐞𝐫𝐢𝐤𝐬𝐚)/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝚺</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> 𝐒𝐜𝐨𝐫𝐞 𝐦𝐚𝐤𝐬𝐢𝐦𝐮𝐦 𝐭𝐚𝐫𝐠𝐞𝐭 𝐭𝐞𝐫𝐡𝐚𝐝𝐚𝐩 𝐬𝐞𝐥𝐮𝐫𝐮𝐡 𝐢𝐭𝐞𝐦 𝐲𝐚𝐧𝐠 𝐡𝐚𝐫𝐮𝐬 𝐝𝐩𝐞𝐫𝐢𝐤𝐬𝐚)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1200" b="1"/>
-                <a:t> x 100 %</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,10 +968,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1316,526 +989,736 @@
     <col min="11" max="11" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="B12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B14" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B15" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="3" t="s">
+      <c r="B16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="B18" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
+        <v>3</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="B19" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="B20" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>11</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B21" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>9</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="5">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>12</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="2">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="9">
         <f>SUM(F11:F22)</f>
         <v>37</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="10">
         <f>SUM(G11:G22)/31</f>
         <v>0</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="1"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:17" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="41"/>
+      <c r="G45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+    </row>
+    <row r="47" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
+    </row>
+    <row r="48" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="41"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
+    </row>
+    <row r="49" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="41"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="39"/>
+    </row>
+    <row r="50" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="41"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
+    </row>
+    <row r="51" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="39"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F35" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="F36" s="33"/>
-      <c r="G36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
-    </row>
-    <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-    </row>
-    <row r="39" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="33"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
-    </row>
-    <row r="40" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="33"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-    </row>
-    <row r="41" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="33"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="30"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="66">
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J46:K47"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="F44:F51"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -1845,19 +1728,13 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H10:K10"/>
@@ -1874,13 +1751,27 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold" Lampiran 10 – Pedoman No. A-001/K00100/2015-S9 Rev. 03</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
